--- a/Countries_Final_PL_14.xlsx
+++ b/Countries_Final_PL_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matso\Desktop\Corona_tableau\Corona_tableau_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C1A59-4EFA-449C-8C2A-CA5E00395DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9968840-532B-45D8-8EDB-477D6918144C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="612" windowWidth="23028" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
-    <definedName name="Countries_Continents_csv" localSheetId="0">Sheet1!$A$1:$B$207</definedName>
+    <definedName name="Countries_Continents_csv" localSheetId="0">Sheet1!$A$1:$B$209</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="1159">
   <si>
     <t>Continent</t>
   </si>
@@ -3558,13 +3558,19 @@
     <t>Gambia, The</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Wyspy Zielonego Przylądka</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>The Bahamas</t>
+  </si>
+  <si>
     <t>Bahamas, The</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Wyspy Zielonego Przylądka</t>
   </si>
 </sst>
 </file>
@@ -21068,10 +21074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21321,10 +21327,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1155</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1156</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>371</v>
@@ -21413,7 +21419,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>499</v>
@@ -21433,25 +21439,25 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>1157</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>658</v>
+        <v>499</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="E16" s="14">
-        <v>620</v>
+        <v>500</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>501</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>660</v>
+        <v>502</v>
       </c>
       <c r="G16" s="14">
-        <v>1189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -21459,321 +21465,321 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>663</v>
+        <v>659</v>
+      </c>
+      <c r="E17" s="14">
+        <v>620</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G17" s="14">
-        <v>1099</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>503</v>
+        <v>661</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="E18" s="11">
-        <v>431</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>1089</v>
+        <v>662</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>664</v>
       </c>
       <c r="G18" s="14">
-        <v>654</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>856</v>
+        <v>503</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>859</v>
+        <v>504</v>
+      </c>
+      <c r="E19" s="11">
+        <v>431</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1089</v>
       </c>
       <c r="G19" s="14">
-        <v>346</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>507</v>
+        <v>856</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>508</v>
+        <v>857</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>509</v>
+        <v>858</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>510</v>
+        <v>859</v>
       </c>
       <c r="G20" s="14">
-        <v>11.6</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>220</v>
+        <v>507</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>221</v>
+        <v>508</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>222</v>
+        <v>509</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="G21" s="14">
-        <v>74</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>665</v>
+        <v>220</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>666</v>
+        <v>221</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>667</v>
+        <v>222</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>668</v>
+        <v>223</v>
       </c>
       <c r="G22" s="14">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>860</v>
+        <v>665</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>861</v>
+        <v>666</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>862</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>1064</v>
+        <v>667</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>668</v>
       </c>
       <c r="G23" s="14">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>1093</v>
+        <v>860</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>861</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>445</v>
+        <v>862</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>1064</v>
       </c>
       <c r="G24" s="14">
-        <v>8.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>865</v>
+        <v>442</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>1093</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>866</v>
+        <v>444</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>867</v>
+        <v>445</v>
       </c>
       <c r="G25" s="14">
-        <v>86</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>224</v>
+        <v>864</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>225</v>
+        <v>865</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>226</v>
+        <v>866</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>227</v>
+        <v>867</v>
       </c>
       <c r="G26" s="14">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>447</v>
+        <v>224</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>1103</v>
+        <v>225</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="G27" s="14">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>669</v>
+        <v>447</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="E28" s="14">
-        <v>5770</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>671</v>
+        <v>448</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>1103</v>
       </c>
       <c r="G28" s="14">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>868</v>
+        <v>669</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>869</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>870</v>
+        <v>670</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5770</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1066</v>
+        <v>671</v>
       </c>
       <c r="G29" s="14">
-        <v>67.900000000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>228</v>
+        <v>868</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>229</v>
+        <v>869</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>230</v>
+        <v>870</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>231</v>
+        <v>1066</v>
       </c>
       <c r="G30" s="14">
-        <v>57.4</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -21781,91 +21787,91 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G31" s="14">
-        <v>312</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>451</v>
+        <v>233</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>452</v>
+        <v>234</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>453</v>
+        <v>235</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>454</v>
+        <v>236</v>
       </c>
       <c r="G32" s="14">
-        <v>22.1</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>672</v>
+        <v>451</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>673</v>
+        <v>452</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>1040</v>
+        <v>453</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>454</v>
       </c>
       <c r="G33" s="14">
-        <v>140.4</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>872</v>
+        <v>672</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>873</v>
+        <v>673</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>875</v>
+        <v>674</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>1040</v>
       </c>
       <c r="G34" s="14">
-        <v>79</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -21873,68 +21879,68 @@
         <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>677</v>
+        <v>872</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E35" s="14">
-        <v>9250</v>
+        <v>873</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>874</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>679</v>
+        <v>875</v>
       </c>
       <c r="G35" s="14">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>237</v>
+        <v>677</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>1026</v>
+        <v>678</v>
+      </c>
+      <c r="E36" s="14">
+        <v>9250</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>679</v>
       </c>
       <c r="G36" s="14">
-        <v>7.5</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>876</v>
+        <v>237</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>877</v>
+        <v>238</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>878</v>
+        <v>239</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1081</v>
+        <v>1026</v>
       </c>
       <c r="G37" s="14">
-        <v>48.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -21942,22 +21948,22 @@
         <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>1067</v>
+        <v>1081</v>
       </c>
       <c r="G38" s="14">
-        <v>133</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -21965,68 +21971,68 @@
         <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>1121</v>
+        <v>882</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>883</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G39" s="14">
-        <v>128.4</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>241</v>
+        <v>885</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>244</v>
+        <v>886</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>1068</v>
       </c>
       <c r="G40" s="14">
-        <v>28</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>512</v>
+        <v>241</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="E41" s="14">
-        <v>754</v>
+        <v>242</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>514</v>
+        <v>244</v>
       </c>
       <c r="G41" s="14">
-        <v>91.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -22034,45 +22040,45 @@
         <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>518</v>
+        <v>513</v>
+      </c>
+      <c r="E42" s="14">
+        <v>754</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G42" s="14">
-        <v>185</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>245</v>
+        <v>516</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>1025</v>
+        <v>517</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>519</v>
       </c>
       <c r="G43" s="14">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -22080,114 +22086,114 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>434</v>
+        <v>245</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>436</v>
+        <v>246</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>1024</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="G44" s="14">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>459</v>
+        <v>436</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="G45" s="14">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>247</v>
+        <v>456</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>248</v>
+        <v>457</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>249</v>
+        <v>458</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>250</v>
+        <v>459</v>
       </c>
       <c r="G46" s="14">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>890</v>
+        <v>247</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>891</v>
+        <v>248</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>1069</v>
+        <v>249</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="G47" s="14">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>251</v>
+        <v>890</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>252</v>
+        <v>891</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>254</v>
+        <v>892</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>1069</v>
       </c>
       <c r="G48" s="14">
-        <v>65.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -22195,91 +22201,91 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G49" s="14">
-        <v>72</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>589</v>
+        <v>256</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>590</v>
+        <v>257</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>1091</v>
+        <v>258</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="G50" s="14">
-        <v>46.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>680</v>
+        <v>589</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>681</v>
+        <v>590</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>683</v>
+        <v>591</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>1091</v>
       </c>
       <c r="G51" s="14">
-        <v>309</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>894</v>
+        <v>680</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>895</v>
+        <v>681</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>896</v>
+        <v>682</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>897</v>
+        <v>683</v>
       </c>
       <c r="G52" s="14">
-        <v>15.71</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -22287,69 +22293,69 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>901</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>1070</v>
+        <v>896</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>897</v>
       </c>
       <c r="G53" s="14">
-        <v>98</v>
-      </c>
-      <c r="H53" s="3"/>
+        <v>15.71</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>260</v>
+        <v>899</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>261</v>
+        <v>900</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>263</v>
+        <v>901</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>1070</v>
       </c>
       <c r="G54" s="14">
-        <v>5.4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>1152</v>
+        <v>18</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="14">
-        <v>10689</v>
-      </c>
-      <c r="F55" s="14">
-        <v>2051363</v>
+        <v>261</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="G55" s="14">
-        <v>176.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -22357,7 +22363,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>265</v>
@@ -22380,160 +22386,160 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>1153</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="E57" s="14">
+        <v>10689</v>
+      </c>
+      <c r="F57" s="14">
+        <v>2051363</v>
       </c>
       <c r="G57" s="14">
-        <v>96</v>
+        <v>176.1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>903</v>
+        <v>269</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>904</v>
+        <v>270</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>905</v>
+        <v>271</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>906</v>
+        <v>272</v>
       </c>
       <c r="G58" s="14">
-        <v>85.01</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>520</v>
+        <v>903</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="E59" s="14">
-        <v>344</v>
+        <v>904</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>905</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>522</v>
+        <v>906</v>
       </c>
       <c r="G59" s="14">
-        <v>262</v>
+        <v>85.01</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>684</v>
+        <v>520</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>1071</v>
+        <v>521</v>
+      </c>
+      <c r="E60" s="14">
+        <v>344</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>687</v>
+        <v>522</v>
       </c>
       <c r="G60" s="14">
-        <v>67</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>460</v>
+        <v>684</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>462</v>
+        <v>685</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>1071</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>463</v>
+        <v>687</v>
       </c>
       <c r="G61" s="14">
-        <v>3.6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>523</v>
+        <v>460</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>525</v>
+        <v>462</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>526</v>
+        <v>463</v>
       </c>
       <c r="G62" s="14">
-        <v>119</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>274</v>
+        <v>524</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>275</v>
+        <v>525</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>276</v>
+        <v>526</v>
       </c>
       <c r="G63" s="14">
-        <v>40.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -22541,22 +22547,22 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G64" s="14">
-        <v>41</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -22564,68 +22570,68 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1120</v>
+        <v>280</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G65" s="14">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>527</v>
+        <v>282</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>528</v>
+        <v>283</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>1116</v>
+        <v>1120</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="G66" s="14">
-        <v>322</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>908</v>
+        <v>527</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>909</v>
+        <v>528</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>911</v>
+        <v>529</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>1116</v>
       </c>
       <c r="G67" s="14">
-        <v>93.43</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -22633,68 +22639,68 @@
         <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>1082</v>
+        <v>908</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>909</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G68" s="14">
-        <v>397.6</v>
+        <v>93.43</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>532</v>
+        <v>913</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>1082</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>533</v>
+        <v>915</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>534</v>
+        <v>916</v>
       </c>
       <c r="G69" s="14">
-        <v>65</v>
+        <v>397.6</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>688</v>
+        <v>531</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>689</v>
+        <v>532</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>690</v>
+        <v>533</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>691</v>
+        <v>534</v>
       </c>
       <c r="G70" s="14">
-        <v>354.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -22702,22 +22708,22 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G71" s="14">
-        <v>124</v>
+        <v>354.7</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -22725,22 +22731,22 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G72" s="14">
-        <v>69.540000000000006</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -22748,45 +22754,45 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G73" s="11">
-        <v>43</v>
+        <v>698</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="G73" s="14">
+        <v>69.540000000000006</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>918</v>
+        <v>702</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>920</v>
+        <v>703</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>1041</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G74" s="14">
-        <v>63</v>
+        <v>1042</v>
+      </c>
+      <c r="G74" s="11">
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -22794,91 +22800,91 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G75" s="14">
-        <v>2.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>1043</v>
+        <v>922</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>923</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>708</v>
+        <v>924</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>1044</v>
+        <v>1074</v>
       </c>
       <c r="G76" s="14">
-        <v>351</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>536</v>
+        <v>707</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>1043</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>538</v>
+        <v>708</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>1044</v>
       </c>
       <c r="G77" s="14">
-        <v>245</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>710</v>
+        <v>535</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>711</v>
+        <v>536</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>1046</v>
+        <v>537</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>538</v>
       </c>
       <c r="G78" s="14">
-        <v>336.3</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22886,22 +22892,22 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="G79" s="14">
-        <v>44</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22909,22 +22915,22 @@
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>722</v>
+        <v>717</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>1059</v>
       </c>
       <c r="G80" s="14">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22932,91 +22938,91 @@
         <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G81" s="14">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>287</v>
+        <v>723</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>288</v>
+        <v>724</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>289</v>
+        <v>725</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>290</v>
+        <v>726</v>
       </c>
       <c r="G82" s="14">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>539</v>
+        <v>287</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>540</v>
+        <v>288</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>541</v>
+        <v>289</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>542</v>
+        <v>290</v>
       </c>
       <c r="G83" s="14">
-        <v>3.41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>727</v>
+        <v>539</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>728</v>
+        <v>540</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="F84" s="14">
-        <v>2639000</v>
+        <v>541</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>542</v>
       </c>
       <c r="G84" s="14">
-        <v>81</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -23024,137 +23030,137 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>829</v>
+        <v>727</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>830</v>
+        <v>728</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>832</v>
+        <v>729</v>
+      </c>
+      <c r="F85" s="14">
+        <v>2639000</v>
       </c>
       <c r="G85" s="14">
-        <v>5.67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>291</v>
+        <v>829</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>292</v>
+        <v>830</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>293</v>
+        <v>831</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>294</v>
+        <v>832</v>
       </c>
       <c r="G86" s="14">
-        <v>68.599999999999994</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>731</v>
+        <v>291</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>732</v>
+        <v>292</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>733</v>
+        <v>293</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>734</v>
+        <v>294</v>
       </c>
       <c r="G87" s="14">
-        <v>27</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>594</v>
+        <v>731</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E88" s="14">
-        <v>811</v>
+        <v>732</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>733</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>596</v>
+        <v>734</v>
       </c>
       <c r="G88" s="14">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>464</v>
+        <v>594</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>1100</v>
+        <v>595</v>
+      </c>
+      <c r="E89" s="14">
+        <v>811</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>596</v>
       </c>
       <c r="G89" s="14">
-        <v>40.1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>296</v>
+        <v>464</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E90" s="14">
-        <v>2170</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>298</v>
+        <v>465</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>1100</v>
       </c>
       <c r="G90" s="14">
-        <v>309</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -23162,22 +23168,22 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>1137</v>
+        <v>12</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E91" s="14">
-        <v>263.89999999999998</v>
-      </c>
-      <c r="F91" s="14">
-        <v>2308000</v>
+        <v>2170</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="G91" s="14">
-        <v>5200</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -23185,7 +23191,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>299</v>
@@ -23193,37 +23199,37 @@
       <c r="D92" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>301</v>
+      <c r="E92" s="14">
+        <v>263.89999999999998</v>
       </c>
       <c r="F92" s="14">
-        <v>5244359</v>
+        <v>2308000</v>
       </c>
       <c r="G92" s="14">
-        <v>12.8</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>1124</v>
+        <v>1145</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>735</v>
+        <v>299</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>1049</v>
+        <v>300</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F93" s="14">
+        <v>5244359</v>
       </c>
       <c r="G93" s="14">
-        <v>500</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -23231,45 +23237,45 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>1048</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G94" s="14">
-        <v>188.8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>1123</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>544</v>
+        <v>739</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>545</v>
+        <v>740</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>547</v>
+        <v>741</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>1047</v>
       </c>
       <c r="G95" s="14">
-        <v>85</v>
+        <v>188.8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -23277,45 +23283,45 @@
         <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G96" s="14">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>744</v>
+        <v>548</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>745</v>
+        <v>549</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>746</v>
+        <v>550</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>747</v>
+        <v>551</v>
       </c>
       <c r="G97" s="14">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -23323,91 +23329,91 @@
         <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="G98" s="14">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>304</v>
+        <v>748</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>305</v>
+        <v>749</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>306</v>
+        <v>750</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>307</v>
+        <v>751</v>
       </c>
       <c r="G99" s="14">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>752</v>
+        <v>304</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>753</v>
+        <v>305</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>754</v>
+        <v>306</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>755</v>
+        <v>307</v>
       </c>
       <c r="G100" s="14">
-        <v>375.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>308</v>
+        <v>752</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>309</v>
+        <v>753</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>310</v>
+        <v>754</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>311</v>
+        <v>755</v>
       </c>
       <c r="G101" s="14">
-        <v>29</v>
+        <v>375.5</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -23415,45 +23421,45 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G102" s="14">
-        <v>3.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>927</v>
+        <v>312</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="E103" s="14">
-        <v>160</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>1078</v>
+        <v>313</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>315</v>
       </c>
       <c r="G103" s="14">
-        <v>215</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -23461,22 +23467,22 @@
         <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>1080</v>
+        <v>928</v>
+      </c>
+      <c r="E104" s="14">
+        <v>160</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G104" s="14">
-        <v>52</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -23484,22 +23490,22 @@
         <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="E105" s="14">
-        <v>2586</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>936</v>
+        <v>931</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>1079</v>
       </c>
       <c r="G105" s="14">
-        <v>183.45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -23507,22 +23513,22 @@
         <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>939</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>940</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>1077</v>
+        <v>935</v>
+      </c>
+      <c r="E106" s="14">
+        <v>2586</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>936</v>
       </c>
       <c r="G106" s="14">
-        <v>35</v>
+        <v>183.45</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -23530,45 +23536,45 @@
         <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>944</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>945</v>
+        <v>940</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>1077</v>
       </c>
       <c r="G107" s="14">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>317</v>
+        <v>942</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>318</v>
+        <v>943</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>319</v>
+        <v>944</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>320</v>
+        <v>945</v>
       </c>
       <c r="G108" s="14">
-        <v>34.14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -23576,139 +23582,139 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G109" s="14">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C110" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D110" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E110" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G109" s="14">
+      <c r="G110" s="14">
         <v>115</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="E110" s="11">
-        <v>300</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G110" s="14">
-        <v>1321</v>
-      </c>
-      <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>53</v>
       </c>
       <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="E111" s="11">
+        <v>300</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G111" s="14">
+        <v>1321</v>
+      </c>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" t="s">
         <v>75</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D112" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E112" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F112" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="G111" s="14">
+      <c r="G112" s="14">
         <v>82.5</v>
       </c>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" t="s">
-        <v>29</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G112" s="14">
-        <v>10.199999999999999</v>
-      </c>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>946</v>
+        <v>326</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="E113" s="14">
-        <v>316</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>948</v>
+        <v>327</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>1034</v>
       </c>
       <c r="G113" s="14">
-        <v>1277</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>331</v>
+        <v>946</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>333</v>
+        <v>947</v>
+      </c>
+      <c r="E114" s="14">
+        <v>316</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>334</v>
+        <v>948</v>
       </c>
       <c r="G114" s="14">
-        <v>78.099999999999994</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -23716,22 +23722,22 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G115" s="14">
-        <v>3.2</v>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -23739,114 +23745,114 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E116" s="14">
-        <v>2045</v>
+        <v>337</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G116" s="14">
-        <v>601</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>552</v>
+        <v>341</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>1115</v>
+        <v>342</v>
+      </c>
+      <c r="E117" s="14">
+        <v>2045</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="G117" s="14">
-        <v>56.9</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>597</v>
+        <v>552</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="E118" s="14">
-        <v>702</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>599</v>
+        <v>553</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>1115</v>
       </c>
       <c r="G118" s="14">
-        <v>171</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>766</v>
+        <v>597</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>768</v>
+        <v>598</v>
+      </c>
+      <c r="E119" s="14">
+        <v>702</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>769</v>
+        <v>599</v>
       </c>
       <c r="G119" s="14">
-        <v>78.7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>949</v>
+        <v>766</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>950</v>
+        <v>767</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>951</v>
+        <v>768</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>952</v>
+        <v>769</v>
       </c>
       <c r="G120" s="14">
-        <v>128</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -23854,68 +23860,68 @@
         <v>95</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="E121" s="14">
-        <v>1.95</v>
+        <v>949</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>951</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>956</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>957</v>
+        <v>952</v>
+      </c>
+      <c r="G121" s="14">
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G122" s="14">
-        <v>1.75</v>
+        <v>953</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="E122" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>344</v>
+        <v>771</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>345</v>
+        <v>772</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>347</v>
+        <v>773</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>1051</v>
       </c>
       <c r="G123" s="14">
-        <v>26</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -23923,114 +23929,114 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G124" s="14">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>600</v>
+        <v>348</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="E125" s="14">
-        <v>21.3</v>
+        <v>349</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>603</v>
+        <v>351</v>
       </c>
       <c r="G125" s="14">
-        <v>621</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>776</v>
+        <v>600</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>778</v>
+        <v>601</v>
+      </c>
+      <c r="E126" s="14">
+        <v>21.3</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>779</v>
+        <v>603</v>
       </c>
       <c r="G126" s="14">
-        <v>203</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>958</v>
+        <v>776</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>959</v>
+        <v>777</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>1072</v>
+        <v>778</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>779</v>
       </c>
       <c r="G127" s="14">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>352</v>
+        <v>958</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>353</v>
+        <v>959</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>354</v>
+        <v>1122</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>1035</v>
+        <v>1072</v>
       </c>
       <c r="G128" s="14">
-        <v>12.1</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -24038,114 +24044,114 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G129" s="14">
-        <v>167.5</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>560</v>
+        <v>359</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>1036</v>
       </c>
       <c r="G130" s="14">
-        <v>43</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>962</v>
+        <v>557</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>963</v>
+        <v>558</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>964</v>
+        <v>559</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>965</v>
+        <v>560</v>
       </c>
       <c r="G131" s="14">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>604</v>
+        <v>962</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>605</v>
+        <v>963</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>1092</v>
+        <v>964</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>965</v>
       </c>
       <c r="G132" s="14">
-        <v>16.350000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>780</v>
+        <v>604</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>781</v>
+        <v>605</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>783</v>
+        <v>606</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>1092</v>
       </c>
       <c r="G133" s="14">
-        <v>10.7</v>
+        <v>16.350000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -24153,114 +24159,114 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="F134" s="16">
-        <v>176242949</v>
+        <v>782</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>783</v>
       </c>
       <c r="G134" s="14">
-        <v>219</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>609</v>
+        <v>785</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="E135" s="14">
-        <v>508</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>611</v>
+        <v>786</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="F135" s="16">
+        <v>176242949</v>
       </c>
       <c r="G135" s="14">
-        <v>44</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>562</v>
+        <v>610</v>
+      </c>
+      <c r="E136" s="14">
+        <v>508</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="G136" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>613</v>
+        <v>157</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="G137" s="14">
-        <v>12.8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>469</v>
+        <v>612</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>470</v>
+        <v>613</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>471</v>
+        <v>614</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>472</v>
+        <v>615</v>
       </c>
       <c r="G138" s="14">
-        <v>16.399999999999999</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -24268,114 +24274,114 @@
         <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G139" s="14">
-        <v>23</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>966</v>
+        <v>473</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>1083</v>
+        <v>474</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="G140" s="14">
-        <v>120.92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>362</v>
+        <v>966</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>365</v>
+        <v>967</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>1083</v>
       </c>
       <c r="G141" s="14">
-        <v>40</v>
+        <v>120.92</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>971</v>
+        <v>362</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>972</v>
+        <v>363</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>1084</v>
+        <v>364</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="G142" s="14">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>366</v>
+        <v>971</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>367</v>
+        <v>972</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>369</v>
+        <v>973</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>1084</v>
       </c>
       <c r="G143" s="14">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -24383,114 +24389,114 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E144" s="14">
-        <v>4033</v>
+        <v>367</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>368</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G144" s="14">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>834</v>
+        <v>370</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>1052</v>
+        <v>371</v>
+      </c>
+      <c r="E145" s="14">
+        <v>4033</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>372</v>
       </c>
       <c r="G145" s="14">
-        <v>8.4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B146" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>975</v>
+        <v>834</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>976</v>
+        <v>835</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>977</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>978</v>
+        <v>836</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="G146" s="14">
-        <v>91</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>373</v>
+        <v>975</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>374</v>
+        <v>976</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>375</v>
+        <v>977</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>376</v>
+        <v>978</v>
       </c>
       <c r="G147" s="14">
-        <v>387</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>564</v>
+        <v>373</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="E148" s="14">
-        <v>261</v>
+        <v>374</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>566</v>
+        <v>376</v>
       </c>
       <c r="G148" s="14">
-        <v>149</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -24498,22 +24504,22 @@
         <v>140</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E149" s="14">
-        <v>616</v>
+        <v>261</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G149" s="14">
-        <v>266.60000000000002</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -24521,22 +24527,22 @@
         <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E150" s="14">
-        <v>389</v>
+        <v>616</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G150" s="14">
-        <v>307</v>
+        <v>266.60000000000002</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -24544,137 +24550,137 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>576</v>
+        <v>572</v>
+      </c>
+      <c r="E151" s="14">
+        <v>389</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G151" s="14">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B152" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="E152" s="14">
-        <v>2944</v>
+        <v>575</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>576</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="G152" s="14">
-        <v>60</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>979</v>
+        <v>617</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>131</v>
+        <v>618</v>
       </c>
       <c r="E153" s="14">
-        <v>61.6</v>
+        <v>2944</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>981</v>
+        <v>619</v>
       </c>
       <c r="G153" s="14">
-        <v>487</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>377</v>
+        <v>979</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>379</v>
+        <v>131</v>
+      </c>
+      <c r="E154" s="14">
+        <v>61.6</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>380</v>
+        <v>981</v>
       </c>
       <c r="G154" s="14">
-        <v>64</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>982</v>
+        <v>377</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>983</v>
+        <v>378</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>984</v>
+        <v>379</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>985</v>
+        <v>380</v>
       </c>
       <c r="G155" s="14">
-        <v>94.8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>381</v>
+        <v>982</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="E156" s="14">
-        <v>455</v>
+        <v>983</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>984</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>383</v>
+        <v>985</v>
       </c>
       <c r="G156" s="14">
-        <v>190</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -24682,68 +24688,68 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E157" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="E157" s="14">
+        <v>455</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G157" s="14">
-        <v>86</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="E158" s="14">
-        <v>693</v>
+        <v>384</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>792</v>
+        <v>387</v>
       </c>
       <c r="G158" s="14">
-        <v>6652</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>988</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>989</v>
+        <v>789</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="E159" s="14">
+        <v>693</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>990</v>
+        <v>792</v>
       </c>
       <c r="G159" s="14">
-        <v>111</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -24751,114 +24757,114 @@
         <v>95</v>
       </c>
       <c r="B160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>993</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>1085</v>
+        <v>989</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>990</v>
       </c>
       <c r="G160" s="14">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>388</v>
+        <v>991</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>389</v>
+        <v>992</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="F161" s="14" t="s">
-        <v>391</v>
+        <v>993</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>1085</v>
       </c>
       <c r="G161" s="14">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>793</v>
+        <v>388</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>794</v>
+        <v>389</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>795</v>
+        <v>390</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>796</v>
+        <v>391</v>
       </c>
       <c r="G162" s="14">
-        <v>320</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>578</v>
+        <v>793</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>579</v>
+        <v>794</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>1090</v>
+        <v>795</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>796</v>
       </c>
       <c r="G163" s="14">
-        <v>32.229999999999997</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>392</v>
+        <v>578</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>393</v>
+        <v>579</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>395</v>
+        <v>580</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="G164" s="14">
-        <v>16.399999999999999</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -24866,89 +24872,89 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G165" s="14"/>
+        <v>394</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G165" s="14">
+        <v>16.399999999999999</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F166" s="11">
-        <v>476000</v>
-      </c>
-      <c r="G166" s="14">
-        <v>2.9</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G166" s="14"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>797</v>
+        <v>477</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>800</v>
+        <v>478</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F167" s="11">
+        <v>476000</v>
       </c>
       <c r="G167" s="14">
-        <v>107</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B168" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>995</v>
+        <v>797</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1086</v>
+        <v>798</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>997</v>
+        <v>799</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>998</v>
+        <v>800</v>
       </c>
       <c r="G168" s="14">
-        <v>186</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -24956,45 +24962,45 @@
         <v>95</v>
       </c>
       <c r="B169" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>1000</v>
+        <v>1086</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G169" s="14">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>801</v>
+        <v>999</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>802</v>
+        <v>1000</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>1055</v>
+        <v>1001</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>803</v>
+        <v>1002</v>
       </c>
       <c r="G170" s="14">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -25002,341 +25008,341 @@
         <v>53</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>1057</v>
+        <v>802</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>803</v>
       </c>
       <c r="G171" s="14">
-        <v>127</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>401</v>
+        <v>804</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>404</v>
+        <v>805</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>1057</v>
       </c>
       <c r="G172" s="14">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>808</v>
+        <v>401</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>809</v>
+        <v>402</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>810</v>
+        <v>403</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>811</v>
+        <v>404</v>
       </c>
       <c r="G173" s="14">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>405</v>
+        <v>808</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>406</v>
+        <v>809</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>407</v>
+        <v>810</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>408</v>
+        <v>811</v>
       </c>
       <c r="G174" s="14">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>1156</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>620</v>
+        <v>808</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E175" s="14">
-        <v>748</v>
+        <v>809</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>810</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>622</v>
+        <v>811</v>
       </c>
       <c r="G175" s="14">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E176" s="14">
-        <v>5128</v>
+        <v>406</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>407</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="G176" s="14">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>409</v>
+        <v>620</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>411</v>
+        <v>621</v>
+      </c>
+      <c r="E177" s="14">
+        <v>748</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>412</v>
+        <v>622</v>
       </c>
       <c r="G177" s="14">
-        <v>63.5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B178" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>838</v>
+        <v>482</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="E178" s="14" t="s">
-        <v>840</v>
+        <v>483</v>
+      </c>
+      <c r="E178" s="14">
+        <v>5128</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>841</v>
+        <v>484</v>
       </c>
       <c r="G178" s="14">
-        <v>92</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>812</v>
+        <v>409</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>813</v>
+        <v>410</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>814</v>
+        <v>411</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>815</v>
+        <v>412</v>
       </c>
       <c r="G179" s="14">
-        <v>11</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="E180" s="14">
-        <v>26</v>
+        <v>839</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>840</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>625</v>
+        <v>841</v>
       </c>
       <c r="G180" s="14">
-        <v>475.9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B181" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>414</v>
+        <v>812</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>415</v>
+        <v>813</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>416</v>
+        <v>814</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>417</v>
+        <v>815</v>
       </c>
       <c r="G181" s="14">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B182" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>1003</v>
+        <v>623</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E182" s="14" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>1087</v>
+        <v>624</v>
+      </c>
+      <c r="E182" s="14">
+        <v>26</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>625</v>
       </c>
       <c r="G182" s="14">
-        <v>77</v>
+        <v>475.9</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="F183" s="11">
-        <v>3449285</v>
+        <v>416</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>417</v>
       </c>
       <c r="G183" s="14">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>816</v>
+        <v>1003</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>817</v>
+        <v>1004</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="F184" s="14" t="s">
-        <v>819</v>
+        <v>1005</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>1087</v>
       </c>
       <c r="G184" s="14">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>627</v>
+        <v>485</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>628</v>
+        <v>486</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="F185" s="14" t="s">
-        <v>630</v>
+        <v>487</v>
+      </c>
+      <c r="F185" s="11">
+        <v>3449285</v>
       </c>
       <c r="G185" s="14">
         <v>20</v>
@@ -25344,48 +25350,48 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E186" s="14">
-        <v>0.44</v>
-      </c>
-      <c r="F186" s="14">
-        <v>824</v>
+        <v>816</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>819</v>
       </c>
       <c r="G186" s="14">
-        <v>1873</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>489</v>
+        <v>627</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>490</v>
+        <v>628</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>491</v>
+        <v>629</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>492</v>
+        <v>630</v>
       </c>
       <c r="G187" s="14">
-        <v>32.85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -25393,68 +25399,68 @@
         <v>95</v>
       </c>
       <c r="B188" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E188" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>1073</v>
+        <v>1007</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E188" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="F188" s="14">
+        <v>824</v>
       </c>
       <c r="G188" s="14">
-        <v>107</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B189" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>1014</v>
+        <v>489</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>1015</v>
+        <v>490</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>1088</v>
+        <v>491</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>492</v>
       </c>
       <c r="G189" s="14">
-        <v>254.1</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B190" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>820</v>
+        <v>1010</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>1058</v>
+        <v>1011</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>1012</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G190" s="11">
-        <v>260</v>
+        <v>1073</v>
+      </c>
+      <c r="G190" s="14">
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -25462,325 +25468,325 @@
         <v>95</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E191" s="14" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="G191" s="14">
-        <v>199.8</v>
+        <v>254.1</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>418</v>
+        <v>820</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E192" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="G192" s="14">
-        <v>57</v>
+        <v>821</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G192" s="11">
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>418</v>
+        <v>1019</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>419</v>
+        <v>1020</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>421</v>
+        <v>1021</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>1076</v>
       </c>
       <c r="G193" s="14">
-        <v>57</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>632</v>
+        <v>418</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="E194" s="14">
-        <v>181</v>
+        <v>419</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>420</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>634</v>
+        <v>421</v>
       </c>
       <c r="G194" s="14">
-        <v>326</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>635</v>
+        <v>418</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>636</v>
+        <v>419</v>
       </c>
       <c r="E195" s="14" t="s">
-        <v>637</v>
+        <v>420</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>638</v>
+        <v>421</v>
       </c>
       <c r="G195" s="14">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>422</v>
+        <v>632</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>423</v>
+        <v>633</v>
       </c>
       <c r="E196" s="14">
-        <v>1001</v>
+        <v>181</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>424</v>
+        <v>634</v>
       </c>
       <c r="G196" s="14">
-        <v>187</v>
-      </c>
-      <c r="H196" s="6"/>
+        <v>326</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="B197" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>425</v>
+        <v>635</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>426</v>
+        <v>636</v>
       </c>
       <c r="E197" s="14" t="s">
-        <v>427</v>
+        <v>637</v>
       </c>
       <c r="F197" s="14" t="s">
-        <v>428</v>
+        <v>638</v>
       </c>
       <c r="G197" s="14">
-        <v>15.3</v>
-      </c>
-      <c r="H197" s="6"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="E198" s="14" t="s">
-        <v>432</v>
+        <v>423</v>
+      </c>
+      <c r="E198" s="14">
+        <v>1001</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G198" s="14">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>825</v>
+        <v>425</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>826</v>
+        <v>426</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>827</v>
+        <v>427</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>828</v>
+        <v>428</v>
       </c>
       <c r="G199" s="14">
-        <v>55</v>
+        <v>15.3</v>
       </c>
       <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>1104</v>
+        <v>52</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F200" s="11">
-        <v>115120</v>
-      </c>
-      <c r="G200" s="11">
-        <v>644</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="G200" s="14">
+        <v>32</v>
+      </c>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="B201" t="s">
-        <v>1136</v>
+        <v>91</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E201" s="16">
-        <v>444</v>
-      </c>
-      <c r="F201" s="16">
-        <v>149648</v>
-      </c>
-      <c r="G201" s="16">
-        <v>337</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="G201" s="14">
+        <v>55</v>
+      </c>
+      <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="B202" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E202" s="16">
-        <v>17363</v>
+        <v>1104</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>1106</v>
       </c>
       <c r="F202" s="11">
-        <v>1467152</v>
-      </c>
-      <c r="G202" s="16">
-        <v>85</v>
+        <v>115120</v>
+      </c>
+      <c r="G202" s="11">
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B203" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E203" s="14">
-        <v>2166086</v>
+        <v>1132</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E203" s="16">
+        <v>444</v>
       </c>
       <c r="F203" s="16">
-        <v>56171</v>
-      </c>
-      <c r="G203" s="14">
-        <v>0.03</v>
+        <v>149648</v>
+      </c>
+      <c r="G203" s="16">
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1144</v>
+        <v>1126</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>1126</v>
       </c>
       <c r="D204" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E204">
-        <v>544</v>
-      </c>
-      <c r="F204" s="16">
-        <v>167358</v>
+        <v>1131</v>
+      </c>
+      <c r="E204" s="16">
+        <v>17363</v>
+      </c>
+      <c r="F204" s="11">
+        <v>1467152</v>
       </c>
       <c r="G204" s="16">
-        <v>308</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -25788,91 +25794,91 @@
         <v>95</v>
       </c>
       <c r="B205" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E205" s="11">
-        <v>65</v>
-      </c>
-      <c r="F205" s="11">
-        <v>63026</v>
-      </c>
-      <c r="G205" s="16">
-        <v>965</v>
+        <v>1140</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E205" s="14">
+        <v>2166086</v>
+      </c>
+      <c r="F205" s="16">
+        <v>56171</v>
+      </c>
+      <c r="G205" s="14">
+        <v>0.03</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B206" t="s">
-        <v>194</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E206" s="11">
-        <v>86504</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G206" s="11">
-        <v>3.2</v>
+        <v>1144</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E206">
+        <v>544</v>
+      </c>
+      <c r="F206" s="16">
+        <v>167358</v>
+      </c>
+      <c r="G206" s="16">
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B207" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F207" s="15">
-        <v>395700</v>
-      </c>
-      <c r="G207" s="11">
-        <v>240</v>
+        <v>1128</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E207" s="11">
+        <v>65</v>
+      </c>
+      <c r="F207" s="11">
+        <v>63026</v>
+      </c>
+      <c r="G207" s="16">
+        <v>965</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B208" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E208" s="16">
-        <v>116</v>
-      </c>
-      <c r="F208" s="16">
-        <v>96513</v>
-      </c>
-      <c r="G208" s="16">
-        <v>789.9</v>
+        <v>194</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E208" s="11">
+        <v>86504</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G208" s="11">
+        <v>3.2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -25880,22 +25886,22 @@
         <v>177</v>
       </c>
       <c r="B209" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E209" s="11">
-        <v>264</v>
-      </c>
-      <c r="F209" s="11">
-        <v>58441</v>
+        <v>1112</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F209" s="15">
+        <v>395700</v>
       </c>
       <c r="G209" s="11">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -25903,181 +25909,227 @@
         <v>95</v>
       </c>
       <c r="B210" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>1139</v>
+        <v>1127</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1129</v>
       </c>
       <c r="E210" s="16">
-        <v>10887</v>
+        <v>116</v>
       </c>
       <c r="F210" s="16">
-        <v>1920079</v>
+        <v>96513</v>
       </c>
       <c r="G210" s="16">
-        <v>176.3</v>
+        <v>789.9</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="B211" t="s">
-        <v>1146</v>
+        <v>1107</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E211" s="14">
-        <v>374</v>
-      </c>
-      <c r="F211" s="14">
-        <v>256518</v>
-      </c>
-      <c r="G211" s="14">
-        <v>690</v>
+        <v>1108</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E211" s="11">
+        <v>264</v>
+      </c>
+      <c r="F211" s="11">
+        <v>58441</v>
+      </c>
+      <c r="G211" s="11">
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B212" t="s">
-        <v>193</v>
+        <v>1138</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E212" s="11">
-        <v>1128</v>
-      </c>
-      <c r="F212" s="11">
-        <v>371246</v>
-      </c>
-      <c r="G212" s="11">
-        <v>329</v>
+        <v>1139</v>
+      </c>
+      <c r="E212" s="16">
+        <v>10887</v>
+      </c>
+      <c r="F212" s="16">
+        <v>1920079</v>
+      </c>
+      <c r="G212" s="16">
+        <v>176.3</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E213">
-        <v>9104</v>
-      </c>
-      <c r="F213" s="16">
-        <v>3351827</v>
-      </c>
-      <c r="G213" s="16">
-        <v>368</v>
+        <v>1146</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E213" s="14">
+        <v>374</v>
+      </c>
+      <c r="F213" s="14">
+        <v>256518</v>
+      </c>
+      <c r="G213" s="14">
+        <v>690</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="B214" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>200</v>
+        <v>1096</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>1037</v>
+        <v>1095</v>
       </c>
       <c r="E214" s="11">
-        <v>2511</v>
+        <v>1128</v>
       </c>
       <c r="F214" s="11">
-        <v>859959</v>
+        <v>371246</v>
       </c>
       <c r="G214" s="11">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B215" t="s">
-        <v>203</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F215" s="11">
-        <v>3711</v>
+        <v>1143</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E215">
+        <v>9104</v>
+      </c>
+      <c r="F215" s="16">
+        <v>3351827</v>
+      </c>
+      <c r="G215" s="16">
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>1053</v>
+        <v>200</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>1037</v>
       </c>
       <c r="E216" s="11">
-        <v>35801</v>
+        <v>2511</v>
       </c>
       <c r="F216" s="11">
-        <v>22200000</v>
+        <v>859959</v>
       </c>
       <c r="G216" s="11">
-        <v>620</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>202</v>
+      </c>
+      <c r="B217" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F217" s="11">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>53</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
+        <v>195</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E218" s="11">
+        <v>35801</v>
+      </c>
+      <c r="F218" s="11">
+        <v>22200000</v>
+      </c>
+      <c r="G218" s="11">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" t="s">
         <v>1125</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C219" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D219" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="E217" s="17">
+      <c r="E219" s="17">
         <v>6220</v>
       </c>
-      <c r="F217" s="16">
+      <c r="F219" s="16">
         <v>4550000</v>
       </c>
-      <c r="G217" s="11">
+      <c r="G219" s="11">
         <v>654</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{AAF8B686-EAD8-41A3-89FE-9BFCBDE9434B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G217">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G219">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G212">
-    <sortCondition ref="F2:F212"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G214">
+    <sortCondition ref="F2:F214"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Countries_Final_PL_14.xlsx
+++ b/Countries_Final_PL_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matso\Desktop\Corona_tableau\Corona_tableau_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8DB606-79E7-4C7A-AA38-077E64307A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D25F89-19F2-4351-B0EE-0BC98DC6684D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="1166">
   <si>
     <t>Continent</t>
   </si>
@@ -3586,6 +3586,12 @@
   </si>
   <si>
     <t>Statek "MS Zaandam"</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Sahara Zachodnia</t>
   </si>
 </sst>
 </file>
@@ -21089,10 +21095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K219" sqref="K219"/>
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26218,6 +26224,29 @@
       </c>
       <c r="F223" s="11">
         <v>1829</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E224" s="11">
+        <v>266000</v>
+      </c>
+      <c r="F224" s="11">
+        <v>567402</v>
+      </c>
+      <c r="G224" s="11">
+        <v>2.0299999999999998</v>
       </c>
     </row>
   </sheetData>
